--- a/Design/DataTable/MonsterClass.xlsx
+++ b/Design/DataTable/MonsterClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D288CA7F-F324-410C-B6CC-DF41AF715C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C97439F-33ED-4A54-A645-CA1BE53726D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71AD7E77-A881-4070-9F12-9BD43B61D3D1}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -568,7 +568,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -588,7 +588,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/MonsterClass.xlsx
+++ b/Design/DataTable/MonsterClass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C97439F-33ED-4A54-A645-CA1BE53726D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA23F37-2B99-40A2-A854-F1331A2CD5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71AD7E77-A881-4070-9F12-9BD43B61D3D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>MonsterClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,11 +165,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE79514-3E8A-45A9-8328-78B4CF28F477}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -491,7 +502,7 @@
     <col min="3" max="3" width="9.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -510,8 +521,11 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +544,11 @@
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -550,8 +567,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -570,8 +590,11 @@
       <c r="F4" s="1">
         <v>50</v>
       </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,10 +612,14 @@
       </c>
       <c r="F5" s="1">
         <v>80</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>